--- a/src/main/resources/templates/excel/TemplateClientKT&G.xlsx
+++ b/src/main/resources/templates/excel/TemplateClientKT&G.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -10,9 +10,9 @@
     <sheet name="BLN6 NON THR" sheetId="10" r:id="rId1"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BLN6 NON THR'!$B$6:$AX$6</definedName>
@@ -1057,6 +1057,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2317,19 +2324,4 @@
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="10" master="" otherUserPermission="visible"/>
-</allowEditUser>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>